--- a/data-samples/sample-table-data/Problem-example.xlsx
+++ b/data-samples/sample-table-data/Problem-example.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -432,72 +432,77 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>categories</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>input_output_description</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>std_input</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>std_output</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>sample_code</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>created_at</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>modified_at</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>template</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>靜態方法</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Python計算圓面積</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>請設計一個程式，以函數計算圓面積。
 **說明：**  
@@ -535,18 +540,18 @@
 ```</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>314.16</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>import math
 def get_area(r):
@@ -562,17 +567,17 @@
 #print(f"{get_area(radius):.2f}")</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>2025-01-14 17:33:55</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>2025-01-14 17:33:55</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>//PREPEND BEGIN
 //PREPEND END
@@ -582,22 +587,24 @@
 //APPEND END</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>靜態方法</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>使用C計算圓面積</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>請設計一個程式，以函數計算圓面積。
 **說明：**  
@@ -642,18 +649,18 @@
 ```</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>314.16</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">#include &lt;stdio.h&gt;
 #include &lt;math.h&gt;
@@ -673,17 +680,17 @@
 </t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>2025-01-14 17:33:55</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>2025-01-14 17:33:55</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>//PREPEND BEGIN
 //PREPEND END
@@ -693,22 +700,24 @@
 //APPEND END</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>靜態方法</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>C計算圓面積（直接貼上函數）</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>請設計一個程式，以函數計算圓面積。
 **說明：**  
@@ -745,18 +754,18 @@
 ```</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>314.16</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">double getArea(double r) {
     return M_PI * r * r; // 使用 math.h 提供的 M_PI
@@ -767,17 +776,17 @@
 </t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>2025-01-14 17:33:55</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>2025-01-14 17:33:55</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>//PREPEND BEGIN
 #include &lt;stdio.h&gt;
@@ -796,22 +805,24 @@
 //APPEND END</t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>靜態方法</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Python計算圓面積（直接貼上函數）</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>請設計一個程式，以函數計算圓面積。
 **說明：**  
@@ -847,14 +858,14 @@
 ```</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>314.16</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>def get_area(r):
   """計算圓形面積
@@ -866,17 +877,17 @@
   return math.pi * r * r</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>2025-01-14 17:33:55</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>2025-01-14 17:33:55</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>//PREPEND BEGIN
 import math
@@ -888,241 +899,24 @@
 //APPEND END</t>
         </is>
       </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bmi類別提供計算getBmi()與建議getSuggestion()的方法</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>設計一個計算Bmi的類別 ，提供**設定建議(suggest)的方法**，並支援**初始化時直接設定身高、體重**，最後提供**計算bmi的方法**，並**返回對應的提示字串**。
-------
- **說明：**
-(1) 以下是寫好的 **`兩種` 操作步驟** ( 程式碼之數值設定、執行順序僅供參考 )
-**Main 類別已在 OJ 寫死，不能更動；**
-```java
-public class Main {
-    public static void main(String[] args) {
-        //第一種方式初始法:呼叫無參數建構子
-        Bmi james = new Bmi();
-		james.setHeight(175);
-		james.setWeight(100);
-		System.out.printf("%.2f\n",james.getBmi());
-        System.out.println(james.getSuggention());
-        // 第二種方式初始法:呼叫有參數建構子
-        //初始法並設定身高、體重
-        Bmi sandy = new Bmi(175, 70);
-		System.out.printf("%.2f\n",sandy.getBmi());
-        System.out.println(sandy.getSuggention());
-    }//main()
-}//Main
-```
-(2) 以下**兩種對應的輸出**：
-**第一種方式初始法:呼叫無參數建構子**
-`Bmi james = new Bmi();`
-`james.setHeight(175); //設定身高`
-`james.setWeight(100); //設定體重`
-**輸出結果：**
-```
-32.65
-中度肥胖
-```
-**第二種方式初始法:呼叫有參數建構子**
-`Bmi sandy = new Bmi(175, 70);`
-**輸出結果：**
-```
-22.86
-正常
-```
-**計算Bmi公式：**
-\\( Bmi =  weight \div (height \div 100) ^ 2\\)
-**注意：** **身高(height)** 要從 **`公分(cm)`**，換算成 **`公尺(m)`**
-計算Bmi的程式碼如下：
-```
-bmi = weight / Math.pow(height / 100.0, 2);
-```
-**suggest判斷：**
-```
-bmi &lt; 18.5
-過輕
-18.5 ≤ bmi &lt; 25.0
-正常
-25.0 ≤ bmi &lt; 27.0
-過重
-27.0 ≤ bmi &lt; 30.0
-輕度肥胖
-30.0 ≤ bmi &lt; 35.0
-中度肥胖
-bmi ≥ 35.0
-重度肥胖
-```
-(3) **請完成Bmi類別**，讓主程式可以正確的執行**前述兩種對應的輸出功能**。
-```
-class Bmi {
-    //基本資料(身高、體重)
-    private int height;
-    private int weight;
-    //也可有bmi、建議等欄位，可有可無，不是必要。
-    //定義有參數建構子
-    public Bmi(int height, int weight) {
-		...
-    }
-    //定義無參數建構子
-    public Bmi() {
-    }
-    public void setHeight(int h) {
-		...
-    }
-    public void setWeight(int w) {
-		...
-    }
-    //回傳suggest
-    public String getSuggention() {
-        // 先取得bmi的值: 可以呼叫getBmi()直接取用
-		...
-        //suggest判斷
-		...
-    }
-    //回傳bmi ( bmi每求必算 )
-    public double getBmi() {
-        //bmi計算
-		...
-    }
-}
-```</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>32.65
-中度肥胖
-22.86
-正常</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>class Bmi {
-    //基本資料(身高、體重)
-    private int height;
-    private int weight;
-    //也可有bmi、建議等欄位，可有可無，不是必要。
-    //定義有參數建構子
-    public Bmi(int height, int weight) {
-        this.height = height;
-        this.weight = weight;
-    }
-    //定義無參數建構子
-    public Bmi() {
-    }
-    public void setHeight(int h) {
-        this.height = h;
-    }
-    public void setWeight(int w) {
-        this.weight = w;
-    }
-    //回傳suggest
-    public String getSuggention() {
-        // 先取得bmi的值: 可以呼叫getBmi()直接取用
-        double bmi;
-        if(weight==0 || height==0)
-		{
-            return "沒有給身高體重";
-        }else{
-            bmi = getBmi();
-        }
-        //suggest判斷
-        if (bmi &lt; 18.5) {
-            return "過輕";
-       } else if (bmi &lt; 25.0) {
-            return "正常";
-       } else if (bmi &lt; 27.0) {
-            return "過重";
-       } else if (bmi &lt; 30.0) {
-            return "輕度肥胖";
-       } else if (bmi &lt; 35.0) {
-            return "中度肥胖";  
-       } else{
-            return "重度肥胖";
-       }
-    }
-    //回傳bmi ( bmi每求必算 )
-    public double getBmi() {
-        //bmi計算
-        if(weight==0 || height==0)
-		{
-            return 0;
-        }else{
-            return weight / Math.pow(height / 100.0, 2);
-        }
-    }
-}</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-01-14 17:33:56</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2025-01-15 20:27:18</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>//PREPEND BEGIN
-public class Main {
-    public static void main(String[] args) {
-        //第一種方式初始法:呼叫無參數建構子
-        Bmi james = new Bmi();
-        james.setHeight(175);
-        james.setWeight(100);
-        //james.computBmi();
-        System.out.printf("%.2f\n",james.getBmi());
-        System.out.println(james.getSuggention());
-        // 第二種方式初始法:呼叫有參數建構子
-        //初始法並設定身高、體重
-        Bmi sandy = new Bmi(175, 70);
-        System.out.printf("%.2f\n",sandy.getBmi());
-        System.out.println(sandy.getSuggention());
-    }//main()
-}//Main
-//PREPEND END
-//TEMPLATE BEGIN
-//TEMPLATE END
-//APPEND BEGIN
-//APPEND END</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+          <t>靜態方法</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>計算圓面積（直接貼上靜態方法）</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>請設計一個程式，以靜態方法計算圓面積。
 -----
@@ -1159,18 +953,18 @@
 ```</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>314.16</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">public static double getArea(int r) {
 	return Math.PI * r * r;
@@ -1178,17 +972,17 @@
 </t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>2025-01-14 17:33:55</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>2025-01-14 17:33:55</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>//PREPEND BEGIN
 import java.util.Scanner;
@@ -1207,139 +1001,24 @@
 //APPEND END</t>
         </is>
       </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>輸出 n 行數字三角形</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">請設計一個程式，使用者輸入行數 n（奇數、個位數），然後輸出指定格式的三角形。
------
-說明：  
-**輸入順序為：**  
-`行數 n (奇數整數)`  
-**輸出格式請看以下說明**  
-使用者輸入奇數行數 n = 5：  
-```
-5
-```
-然後，輸出以下格式的三角形：  
-```
-  1
- 21
-321
- 21
-  1
-```
------
-例子：  
-```
-5
-  1
- 21
-321
- 21
-  1
-```
-提示:  
-上半部用一個for迴圈處理列(行數n取一半)，其內部再用兩個迴圈處理每個列的數字(先印空白的部分，也可以印出+號觀察格式是否正確，確定正確之後，再將+改成空白" "即可 )  
-下半部用另一個for迴圈處理列(行數n取一半+1)，其內部再用兩個迴圈處理每個列的數字(先印空白的部分)    
-</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1
-   21
-  321
- 4321
-54321
- 4321
-  321
-   21
-    1</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">import java.util.Scanner;
-public class Main {
-    public static void main(String[] args) {
-        Scanner scanner = new Scanner(System.in);
-        int n = scanner.nextInt();
-        int nHalf = n / 2;
-        for(int i = 0; i &lt;= nHalf; i++) {
-            for(int j = 0; j &lt; nHalf - i; j++)
-                System.out.print(" ");
-            for(int j = i + 1; j &gt; 0; j--)
-                System.out.print(j);
-            System.out.println();
-        }
-        for(int i = 0; i &lt; nHalf; i++) {
-            for(int j = 0; j &lt;= i; j++)
-                System.out.print(" ");
-            for(int j = nHalf - i; j &gt; 0; j--)
-                System.out.print(j);
-            System.out.println();
-        }
-    }
-}
-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-01-14 17:33:57</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2025-01-14 17:33:57</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>//PREPEND BEGIN
-//PREPEND END
-//TEMPLATE BEGIN
-//TEMPLATE END
-//APPEND BEGIN
-//APPEND END</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>數學運算</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve"> 計算y=f(x)的函數值</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>請撰寫一個 Java 程式，該程式包含一個函數 f(x)，該函數的定義為：
 \\(  y = f(x) = 2x^2 + 3x + 1 \\) 
@@ -1356,18 +1035,18 @@
 ```</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>7.3</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>129.48</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>import java.util.Scanner;
 public class Main {
@@ -1387,17 +1066,17 @@
 }</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>2025-01-14 17:33:57</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>2025-01-14 17:33:57</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>//PREPEND BEGIN
 //PREPEND END
@@ -1407,22 +1086,24 @@
 //APPEND END</t>
         </is>
       </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>數學運算</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>計算 BMI</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>請撰寫一個程式，使用者輸入身高和體重，然後計算並輸出 BMI 值。
 -----
@@ -1446,18 +1127,18 @@
 ```</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>199 55</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>13.89</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">import java.util.Scanner;
 /**
@@ -1476,17 +1157,17 @@
 </t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>2025-01-14 17:33:57</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>2025-01-14 17:33:57</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>//PREPEND BEGIN
 //PREPEND END
@@ -1496,9 +1177,6 @@
 //APPEND END</t>
         </is>
       </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
